--- a/whatsapp_mesajlar.xlsx
+++ b/whatsapp_mesajlar.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -28,7 +27,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -60,10 +64,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -81,7 +94,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -444,9 +457,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -490,23 +503,31 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>+90 553 542 12 42</t>
+          <t>+90 507 617 38 71</t>
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>45754.53263888889</v>
+        <v>45782.46666666667</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>GELEN</t>
+          <t>GİDEN</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Merhaba, mağazamız genel satış yapar.</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr"/>
+          <t>Merhaba,
+Öncelikle mağazanız hakkında bilgi almak istediğiniz için teşekkür ederiz. Mağazanızın hangi ürünleri içerdiğini belirtmişsiniz, ancak hangi konuda bilgi almak istediğinizi daha net ifade edebilirseniz, size daha iyi yardımcı olabilirim. Örneğin:
+*   *Çalışma saatlerimiz* hakkında bilgi almak istiyorsanız, ...
+*   *Ürünlerimizle ilgili detaylı bilgi* almak istiyorsanız, ...
+*   *Sipariş verme, iade veya değişim politikalarımız* hakkında bilgi almak istiyorsanız, ...
+*   *Mağazamızın konumu* hakkında bilgi almak istiyorsanız, ...
+Lütfen sorunuzu daha detaylı belirtirseniz, size en kısa sürede ve doğru şekilde yardımcı olmaktan memnuniyet duyarım.
+25 Nisan'daki mesajınız için de özür dilerim. Gözden kaçmış olmalı. Lütfen o mesajınızdaki sorunuzu da tekrar iletin, hemen ilgileneceğim.
+İyi günler dilerim!</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -514,23 +535,23 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>+90 553 542 12 42</t>
+          <t>+90 507 617 38 71</t>
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>45754.53263888889</v>
+        <v>45798.59791666667</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>GELEN</t>
+          <t>GİDEN</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Isterseniz iletişime geçeriz.</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr"/>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -538,75 +559,75 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>+90 553 542 12 42</t>
+          <t>+90 507 617 38 71</t>
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>45772.47916666666</v>
+        <v>45798.60486111111</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>GELEN</t>
+          <t>GİDEN</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Ben de ilgileniyorum.</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>2025-04-25 14:05:49</t>
-        </is>
-      </c>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="A5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>+90 507 617 38 71</t>
         </is>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>45754.53263888889</v>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>GELEN</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>Merhaba mağazamız şu şu ürünleri icermektedir.</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="C5" s="4" t="n">
+        <v>45798.6125</v>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>+90 507 617 38 71</t>
         </is>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>45772.47916666666</v>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>GELEN</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Mesaj</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="C6" s="4" t="n">
+        <v>45798.61388888889</v>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:45:07</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -614,29 +635,445 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>+90 507 617 38 71</t>
+          <t>+90 553 542 12 42</t>
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45772.58680555555</v>
+        <v>45754.53194444445</v>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>45754.53263888889</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
           <t>GELEN</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>2025-04-25 14:05:49</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazamız genel satış yapar.</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>45754.53263888889</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>GELEN</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>Isterseniz iletişime geçeriz.</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>45755.56388888889</v>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>45772.47777777778</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>45772.47916666666</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>GELEN</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>Ben de ilgileniyorum.</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>45772.48055555556</v>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>45772.58263888889</v>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>45772.58611111111</v>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>45776.54930555556</v>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>45776.54930555556</v>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>GELEN</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>45782.46666666667</v>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba,
+İletişime geçtiğiniz için teşekkür ederiz. Mağazanızın genel satış yaptığını ve ilgilenenler olduğunu anlıyorum.
+*Satışlarınızla ilgili ne tür bir konuda yardımcı olabiliriz?* Örneğin:
+*   *Ürünleriniz hakkında bilgi almak mı istiyorsunuz?*
+*   *Toptan satış imkanları hakkında mı bilgi almak istiyorsunuz?*
+*   *Ürünlerinizi platformumuzda sergilemek mi istiyorsunuz?*
+*   *Başka bir konuda mı yardımcı olabiliriz?*
+Lütfen bize daha fazla detay verirseniz, size en iyi şekilde yardımcı olabiliriz.
+İyi günler dilerim.</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>45798.47361111111</v>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>Bu</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>45798.59444444445</v>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>45798.59791666667</v>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>45798.60486111111</v>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>45798.61180555556</v>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>+90 553 542 12 42</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>45798.61388888889</v>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>GİDEN</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>Merhaba, mağazanız hakkında bilgi almak istiyorum.</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:45:07</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>